--- a/AssignGroups/example_project_preferences.xlsx
+++ b/AssignGroups/example_project_preferences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvochteloo/PycharmProjects/Scratch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mvochteloo/PycharmProjects/Teaching-modules/AssignGroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BC0967-3F0F-C247-8A03-9CEE042B43E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98595A-D29A-0A47-8971-94DD98DA401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{9CFBA519-CE2F-3142-9C8C-A2A40633DC37}"/>
+    <workbookView xWindow="7800" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{9CFBA519-CE2F-3142-9C8C-A2A40633DC37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Student</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>study 2</t>
-  </si>
-  <si>
-    <t>study 3</t>
-  </si>
-  <si>
-    <t>study 4</t>
-  </si>
-  <si>
-    <t>study 5</t>
   </si>
   <si>
     <t>Project 6</t>
@@ -467,349 +458,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A67EC9B-FF7D-6B46-A032-90C2822D59BB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="B3">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
+      <c r="B6">
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="B9">
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="B13">
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
         <v>1</v>
       </c>
     </row>
@@ -837,22 +786,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
